--- a/export_employee.xlsx
+++ b/export_employee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t xml:space="preserve">DILG IV - A </t>
   </si>
@@ -29,15 +29,15 @@
     <t>BATANGAS</t>
   </si>
   <si>
+    <t>FIRST NAME</t>
+  </si>
+  <si>
+    <t>MIDDLE NAME</t>
+  </si>
+  <si>
     <t>LAST NAME</t>
   </si>
   <si>
-    <t>FIRST NAME</t>
-  </si>
-  <si>
-    <t>MIDDLE NAME</t>
-  </si>
-  <si>
     <t>OFFICE</t>
   </si>
   <si>
@@ -53,27 +53,327 @@
     <t>PERSONAL EMAIL ADDRESS</t>
   </si>
   <si>
-    <t>OFFICE CONTAT NO</t>
+    <t>OFFICE CONTACT NO</t>
+  </si>
+  <si>
+    <t>OFFICE EMAIL ADDRESS</t>
   </si>
   <si>
     <t>BIRTHDAY</t>
   </si>
   <si>
+    <t>JOHN EVERT</t>
+  </si>
+  <si>
+    <t>JAYIN</t>
+  </si>
+  <si>
+    <t>ADAJAR</t>
+  </si>
+  <si>
+    <t>Admin. Aide IV</t>
+  </si>
+  <si>
+    <t>Records Officer</t>
+  </si>
+  <si>
+    <t>09569229434</t>
+  </si>
+  <si>
+    <t>jhaniene33@gmail.com</t>
+  </si>
+  <si>
+    <t>September 13</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>09438347513</t>
+  </si>
+  <si>
+    <t>November 30</t>
+  </si>
+  <si>
+    <t>RODERICK</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>ADAYA</t>
+  </si>
+  <si>
+    <t>LGOO VI</t>
+  </si>
+  <si>
+    <t>09666853027</t>
+  </si>
+  <si>
+    <t>engr.adaya@gmail.com</t>
+  </si>
+  <si>
+    <t>FRANZ ALLEN</t>
+  </si>
+  <si>
+    <t>CARANDANG</t>
+  </si>
+  <si>
+    <t>ADEL</t>
+  </si>
+  <si>
+    <t>LGOO V</t>
+  </si>
+  <si>
+    <t>09988658060</t>
+  </si>
+  <si>
+    <t>franzallencadel@gmail.com</t>
+  </si>
+  <si>
+    <t>July 08</t>
+  </si>
+  <si>
+    <t>MARY IRENE MICHELLE</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>09171100394</t>
+  </si>
+  <si>
+    <t>mimmoalvarez929@gmail.com</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>LGOO VII</t>
+  </si>
+  <si>
+    <t>OIC-PROVINCIAL DIRECTOR</t>
+  </si>
+  <si>
+    <t>0915-372-9282</t>
+  </si>
+  <si>
+    <t>dilglagunaclusterb3@gmail.com</t>
+  </si>
+  <si>
+    <t>CHRISTIE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ARCEGA</t>
+  </si>
+  <si>
+    <t>LGOO VIII</t>
+  </si>
+  <si>
+    <t>09088887019</t>
+  </si>
+  <si>
+    <t>abutalchristie@yahoo.com</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BAÃÂEZ</t>
+  </si>
+  <si>
+    <t>09985637338</t>
+  </si>
+  <si>
+    <t>abril424@gmail.com</t>
+  </si>
+  <si>
+    <t>ARLENE</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>BANAAG</t>
+  </si>
+  <si>
+    <t>LGOO III</t>
+  </si>
+  <si>
+    <t>09266118032</t>
+  </si>
+  <si>
+    <t>alhendm30@gmail.com</t>
+  </si>
+  <si>
+    <t>VICTORIA CHRISTIE</t>
+  </si>
+  <si>
+    <t>BUNYI</t>
+  </si>
+  <si>
+    <t>09167376626</t>
+  </si>
+  <si>
+    <t>christiebunyi@gmail.com</t>
+  </si>
+  <si>
+    <t>TEODORICA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>09065804168</t>
+  </si>
+  <si>
+    <t>castilloteodorica@gmail.com</t>
+  </si>
+  <si>
+    <t>BATILDE AGNES</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>CILINDRO</t>
+  </si>
+  <si>
+    <t>09273793166</t>
+  </si>
+  <si>
+    <t>cilindroagnes@gmail.com</t>
+  </si>
+  <si>
+    <t>NERISSA</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>09085083110</t>
+  </si>
+  <si>
+    <t>nerissagcontreras@gmail.com</t>
+  </si>
+  <si>
+    <t>FELICIDAD</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CUADRO</t>
+  </si>
+  <si>
+    <t>09369922342</t>
+  </si>
+  <si>
+    <t>dadadilg@yahoo.com</t>
+  </si>
+  <si>
+    <t>VOLTAIRE REVERENDO</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>DIHAN</t>
+  </si>
+  <si>
+    <t>09564024394</t>
+  </si>
+  <si>
+    <t>voltaire_dihan@yahoo.com</t>
+  </si>
+  <si>
+    <t>JULIETA MYLENE</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>FOLLERO</t>
+  </si>
+  <si>
+    <t>LGOO II</t>
+  </si>
+  <si>
+    <t>09176385421</t>
+  </si>
+  <si>
+    <t>mylene_32004@yahoo.com</t>
+  </si>
+  <si>
+    <t>DIOSDADO</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>LA ROSA</t>
+  </si>
+  <si>
+    <t>09778097895</t>
+  </si>
+  <si>
+    <t>mlgoostateresita@yahoo.com</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>LLANTO</t>
+  </si>
+  <si>
+    <t>09177170204</t>
+  </si>
+  <si>
+    <t>miocoronallanto@gmail.com</t>
+  </si>
+  <si>
+    <t>MYLA</t>
+  </si>
+  <si>
+    <t>MAÃIBO</t>
+  </si>
+  <si>
+    <t>09178853203</t>
+  </si>
+  <si>
+    <t>dilglemerybatangas@gmail.com</t>
+  </si>
+  <si>
+    <t>RHODORA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
     <t>ONA</t>
   </si>
   <si>
-    <t>RHODORA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>Admin. Aide VI</t>
   </si>
   <si>
-    <t>Records Officer</t>
-  </si>
-  <si>
     <t>09202189669</t>
   </si>
   <si>
@@ -83,303 +383,27 @@
     <t>April 18</t>
   </si>
   <si>
-    <t>ADAJAR</t>
-  </si>
-  <si>
-    <t>JOHN EVERT</t>
-  </si>
-  <si>
-    <t>JAYIN</t>
-  </si>
-  <si>
-    <t>Admin. Aide IV</t>
-  </si>
-  <si>
-    <t>09569229434</t>
-  </si>
-  <si>
-    <t>jhaniene33@gmail.com</t>
-  </si>
-  <si>
-    <t>September 13</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>09438347513</t>
-  </si>
-  <si>
-    <t>November 30</t>
-  </si>
-  <si>
-    <t>ADAYA</t>
-  </si>
-  <si>
-    <t>RODERICK</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>LGOO VI</t>
-  </si>
-  <si>
-    <t>09666853027</t>
-  </si>
-  <si>
-    <t>engr.adaya@gmail.com</t>
-  </si>
-  <si>
-    <t>ALVAREZ</t>
-  </si>
-  <si>
-    <t>MARY IRENE MICHELLE</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>09171100394</t>
-  </si>
-  <si>
-    <t>mimmoalvarez929@gmail.com</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>LGOO VII</t>
-  </si>
-  <si>
-    <t>OIC-PROVINCIAL DIRECTOR</t>
-  </si>
-  <si>
-    <t>0915-372-9282</t>
-  </si>
-  <si>
-    <t>dilglagunaclusterb3@gmail.com</t>
-  </si>
-  <si>
-    <t>ARCEGA</t>
-  </si>
-  <si>
-    <t>CHRISTIE</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>LGOO VIII</t>
-  </si>
-  <si>
-    <t>09088887019</t>
-  </si>
-  <si>
-    <t>abutalchristie@yahoo.com</t>
-  </si>
-  <si>
-    <t>BANAAG</t>
-  </si>
-  <si>
-    <t>ARLENE</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>LGOO III</t>
-  </si>
-  <si>
-    <t>09266118032</t>
-  </si>
-  <si>
-    <t>alhendm30@gmail.com</t>
-  </si>
-  <si>
-    <t>BAÃÂEZ</t>
-  </si>
-  <si>
-    <t>APRIL</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>09985637338</t>
-  </si>
-  <si>
-    <t>abril424@gmail.com</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>TEODORICA</t>
-  </si>
-  <si>
-    <t>09065804168</t>
-  </si>
-  <si>
-    <t>castilloteodorica@gmail.com</t>
-  </si>
-  <si>
-    <t>BUNYI</t>
-  </si>
-  <si>
-    <t>VICTORIA CHRISTIE</t>
-  </si>
-  <si>
-    <t>09167376626</t>
-  </si>
-  <si>
-    <t>christiebunyi@gmail.com</t>
-  </si>
-  <si>
-    <t>CILINDRO</t>
-  </si>
-  <si>
-    <t>BATILDE AGNES</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>09273793166</t>
-  </si>
-  <si>
-    <t>cilindroagnes@gmail.com</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>NERISSA</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>09085083110</t>
-  </si>
-  <si>
-    <t>nerissagcontreras@gmail.com</t>
-  </si>
-  <si>
-    <t>CUADRO</t>
-  </si>
-  <si>
-    <t>FELICIDAD</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>09369922342</t>
-  </si>
-  <si>
-    <t>dadadilg@yahoo.com</t>
-  </si>
-  <si>
-    <t>DIHAN</t>
-  </si>
-  <si>
-    <t>VOLTAIRE REVERENDO</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>09564024394</t>
-  </si>
-  <si>
-    <t>voltaire_dihan@yahoo.com</t>
-  </si>
-  <si>
-    <t>FOLLERO</t>
-  </si>
-  <si>
-    <t>JULIETA MYLENE</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>LGOO II</t>
-  </si>
-  <si>
-    <t>09176385421</t>
-  </si>
-  <si>
-    <t>mylene_32004@yahoo.com</t>
-  </si>
-  <si>
-    <t>LA ROSA</t>
-  </si>
-  <si>
-    <t>DIOSDADO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>09778097895</t>
-  </si>
-  <si>
-    <t>mlgoostateresita@yahoo.com</t>
-  </si>
-  <si>
-    <t>LLANTO</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>09177170204</t>
-  </si>
-  <si>
-    <t>miocoronallanto@gmail.com</t>
-  </si>
-  <si>
-    <t>MAÃIBO</t>
-  </si>
-  <si>
-    <t>MYLA</t>
-  </si>
-  <si>
-    <t>09178853203</t>
-  </si>
-  <si>
-    <t>dilglemerybatangas@gmail.com</t>
+    <t>AUGUSTO</t>
   </si>
   <si>
     <t>SAN GABRIEL</t>
   </si>
   <si>
-    <t>AUGUSTO</t>
-  </si>
-  <si>
     <t>09088845790</t>
   </si>
   <si>
     <t>augustosangabriel@ymail.com</t>
   </si>
   <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>SANDOVAL</t>
   </si>
   <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>MLGOO</t>
   </si>
   <si>
@@ -392,37 +416,16 @@
     <t>November 21</t>
   </si>
   <si>
+    <t>JERRICK VINCENT</t>
+  </si>
+  <si>
     <t>UMALI</t>
   </si>
   <si>
-    <t>JERRICK VINCENT</t>
-  </si>
-  <si>
     <t>09151194500</t>
   </si>
   <si>
     <t>jerrickumali@rocketmail.com</t>
-  </si>
-  <si>
-    <t>ADEL</t>
-  </si>
-  <si>
-    <t>FRANZ ALLEN</t>
-  </si>
-  <si>
-    <t>CARANDANG</t>
-  </si>
-  <si>
-    <t>LGOO V</t>
-  </si>
-  <si>
-    <t>09988658060</t>
-  </si>
-  <si>
-    <t>franzallencadel@gmail.com</t>
-  </si>
-  <si>
-    <t>July 08</t>
   </si>
 </sst>
 </file>
@@ -830,10 +833,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:L301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,11 +850,12 @@
     <col min="7" max="7" width="17.21875" customWidth="true" style="1"/>
     <col min="8" max="8" width="25.77734375" customWidth="true" style="1"/>
     <col min="9" max="9" width="19.109375" customWidth="true" style="1"/>
-    <col min="10" max="10" width="12" customWidth="true" style="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="true" style="1"/>
+    <col min="10" max="10" width="22.6640625" customWidth="true" style="1"/>
+    <col min="11" max="11" width="12" customWidth="true" style="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" customHeight="1" ht="13.8">
+    <row r="3" spans="1:12" customHeight="1" ht="13.8">
       <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
@@ -859,13 +863,13 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:11" customHeight="1" ht="13.8">
+    <row r="4" spans="1:12" customHeight="1" ht="13.8">
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="D5" s="9" t="s">
         <v>1</v>
       </c>
@@ -873,19 +877,19 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="8" spans="1:11" customHeight="1" ht="17.4">
+    <row r="8" spans="1:12" customHeight="1" ht="17.4">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:11" customHeight="1" ht="17.4">
+    <row r="9" spans="1:12" customHeight="1" ht="17.4">
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
@@ -894,7 +898,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="11" spans="1:11" customHeight="1" ht="27.6">
+    <row r="11" spans="1:12" customHeight="1" ht="27.6">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -925,718 +929,745 @@
       <c r="J11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="K11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>24</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>36</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>42</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>49</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>55</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>60</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>70</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>74</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>79</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>84</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>89</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>94</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>100</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>105</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>109</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>113</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>118</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G31" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>119</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>124</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>130</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1647,8 +1678,9 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1659,8 +1691,9 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1671,8 +1704,9 @@
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1683,8 +1717,9 @@
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1695,8 +1730,9 @@
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1707,8 +1743,9 @@
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1719,8 +1756,9 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1731,8 +1769,9 @@
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1743,8 +1782,9 @@
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1755,8 +1795,9 @@
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1767,8 +1808,9 @@
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1779,8 +1821,9 @@
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1791,8 +1834,9 @@
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1803,8 +1847,9 @@
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1815,8 +1860,9 @@
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1827,8 +1873,9 @@
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1839,8 +1886,9 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1851,8 +1899,9 @@
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1863,8 +1912,9 @@
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1875,8 +1925,9 @@
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="K55" s="7"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1887,8 +1938,9 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -1899,8 +1951,9 @@
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -1911,8 +1964,9 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -1923,8 +1977,9 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -1935,8 +1990,9 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -1947,8 +2003,9 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -1959,8 +2016,9 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -1971,8 +2029,9 @@
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -1983,8 +2042,9 @@
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -1995,8 +2055,9 @@
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2007,8 +2068,9 @@
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2019,8 +2081,9 @@
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2031,8 +2094,9 @@
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2043,8 +2107,9 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2055,8 +2120,9 @@
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2067,8 +2133,9 @@
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2079,8 +2146,9 @@
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2091,8 +2159,9 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -2103,8 +2172,9 @@
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="K74" s="7"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -2115,8 +2185,9 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="K75" s="7"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -2127,8 +2198,9 @@
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -2139,8 +2211,9 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="8"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -2151,8 +2224,9 @@
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -2163,8 +2237,9 @@
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -2175,8 +2250,9 @@
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -2187,8 +2263,9 @@
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -2199,8 +2276,9 @@
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="8"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -2211,8 +2289,9 @@
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -2223,8 +2302,9 @@
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="8"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -2235,8 +2315,9 @@
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="8"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -2247,8 +2328,9 @@
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="8"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -2259,8 +2341,9 @@
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2271,8 +2354,9 @@
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -2283,8 +2367,9 @@
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -2295,8 +2380,9 @@
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -2307,8 +2393,9 @@
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="8"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -2319,8 +2406,9 @@
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -2331,8 +2419,9 @@
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="8"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -2343,8 +2432,9 @@
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -2355,8 +2445,9 @@
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -2367,8 +2458,9 @@
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="8"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -2379,8 +2471,9 @@
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="8"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -2391,8 +2484,9 @@
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="8"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -2403,8 +2497,9 @@
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="8"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -2415,8 +2510,9 @@
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="8"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -2427,8 +2523,9 @@
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="8"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -2439,8 +2536,9 @@
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="8"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -2451,8 +2549,9 @@
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="8"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -2463,8 +2562,9 @@
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="8"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -2475,8 +2575,9 @@
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="8"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -2487,8 +2588,9 @@
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="8"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -2499,8 +2601,9 @@
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="8"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -2511,8 +2614,9 @@
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="K108" s="7"/>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="8"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -2523,8 +2627,9 @@
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="K109" s="7"/>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="8"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -2535,8 +2640,9 @@
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -2547,8 +2653,9 @@
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="8"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -2559,8 +2666,9 @@
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="8"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -2571,8 +2679,9 @@
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="8"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -2583,8 +2692,9 @@
       <c r="H114" s="7"/>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="8"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -2595,8 +2705,9 @@
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="8"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -2607,8 +2718,9 @@
       <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="8"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -2619,8 +2731,9 @@
       <c r="H117" s="7"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="8"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -2631,8 +2744,9 @@
       <c r="H118" s="7"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="K118" s="7"/>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="8"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -2643,8 +2757,9 @@
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="8"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -2655,8 +2770,9 @@
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="K120" s="7"/>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="8"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -2667,8 +2783,9 @@
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="K121" s="7"/>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="8"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -2679,8 +2796,9 @@
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="K122" s="7"/>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="8"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -2691,8 +2809,9 @@
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="K123" s="7"/>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="8"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -2703,8 +2822,9 @@
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="K124" s="7"/>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="8"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -2715,8 +2835,9 @@
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="K125" s="7"/>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="8"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -2727,8 +2848,9 @@
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="K126" s="7"/>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="8"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -2739,8 +2861,9 @@
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="K127" s="7"/>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="8"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -2751,8 +2874,9 @@
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="K128" s="7"/>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="8"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -2763,8 +2887,9 @@
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="K129" s="7"/>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -2775,8 +2900,9 @@
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="K130" s="7"/>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="8"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -2787,8 +2913,9 @@
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="K131" s="7"/>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="8"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -2799,8 +2926,9 @@
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="K132" s="7"/>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="8"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -2811,8 +2939,9 @@
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="K133" s="7"/>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -2823,8 +2952,9 @@
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="K134" s="7"/>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -2835,8 +2965,9 @@
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="K135" s="7"/>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -2847,8 +2978,9 @@
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="K136" s="7"/>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -2859,8 +2991,9 @@
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="K137" s="7"/>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="8"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -2871,8 +3004,9 @@
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="K138" s="7"/>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -2883,8 +3017,9 @@
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="K139" s="7"/>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -2895,8 +3030,9 @@
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="K140" s="7"/>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -2907,8 +3043,9 @@
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="K141" s="7"/>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -2919,8 +3056,9 @@
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="K142" s="7"/>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -2931,8 +3069,9 @@
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="K143" s="7"/>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -2943,8 +3082,9 @@
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="K144" s="7"/>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="8"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -2955,8 +3095,9 @@
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="K145" s="7"/>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="8"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -2967,8 +3108,9 @@
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="K146" s="7"/>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="8"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -2979,8 +3121,9 @@
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="K147" s="7"/>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="8"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -2991,8 +3134,9 @@
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="K148" s="7"/>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="8"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -3003,8 +3147,9 @@
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="K149" s="7"/>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="8"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -3015,8 +3160,9 @@
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="K150" s="7"/>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="8"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -3027,8 +3173,9 @@
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="K151" s="7"/>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="8"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -3039,8 +3186,9 @@
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="K152" s="7"/>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="8"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -3051,8 +3199,9 @@
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="K153" s="7"/>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="8"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -3063,8 +3212,9 @@
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="K154" s="7"/>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="8"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -3075,8 +3225,9 @@
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="K155" s="7"/>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -3087,8 +3238,9 @@
       <c r="H156" s="7"/>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="K156" s="7"/>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -3099,8 +3251,9 @@
       <c r="H157" s="7"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="K157" s="7"/>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="8"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -3111,8 +3264,9 @@
       <c r="H158" s="7"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="K158" s="7"/>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="8"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -3123,8 +3277,9 @@
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="K159" s="7"/>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="8"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -3135,8 +3290,9 @@
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="K160" s="7"/>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161" s="8"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -3147,8 +3303,9 @@
       <c r="H161" s="7"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="K161" s="7"/>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" s="8"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -3159,8 +3316,9 @@
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="K162" s="7"/>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" s="8"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -3171,8 +3329,9 @@
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="K163" s="7"/>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -3183,8 +3342,9 @@
       <c r="H164" s="7"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="K164" s="7"/>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165" s="8"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -3195,8 +3355,9 @@
       <c r="H165" s="7"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="K165" s="7"/>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" s="8"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -3207,8 +3368,9 @@
       <c r="H166" s="7"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="K166" s="7"/>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167" s="8"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -3219,8 +3381,9 @@
       <c r="H167" s="7"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="K167" s="7"/>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" s="8"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -3231,8 +3394,9 @@
       <c r="H168" s="7"/>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="K168" s="7"/>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" s="8"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -3243,8 +3407,9 @@
       <c r="H169" s="7"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="K169" s="7"/>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" s="8"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -3255,8 +3420,9 @@
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="K170" s="7"/>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" s="8"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -3267,8 +3433,9 @@
       <c r="H171" s="7"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="K171" s="7"/>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" s="8"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -3279,8 +3446,9 @@
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="K172" s="7"/>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" s="8"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -3291,8 +3459,9 @@
       <c r="H173" s="7"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="K173" s="7"/>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" s="8"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -3303,8 +3472,9 @@
       <c r="H174" s="7"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="K174" s="7"/>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" s="8"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -3315,8 +3485,9 @@
       <c r="H175" s="7"/>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="K175" s="7"/>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" s="8"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -3327,8 +3498,9 @@
       <c r="H176" s="7"/>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="K176" s="7"/>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" s="8"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -3339,8 +3511,9 @@
       <c r="H177" s="7"/>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="K177" s="7"/>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" s="8"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -3351,8 +3524,9 @@
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="K178" s="7"/>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" s="8"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -3363,8 +3537,9 @@
       <c r="H179" s="7"/>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="K179" s="7"/>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -3375,8 +3550,9 @@
       <c r="H180" s="7"/>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="K180" s="7"/>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" s="8"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -3387,8 +3563,9 @@
       <c r="H181" s="7"/>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="K181" s="7"/>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182" s="8"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -3399,8 +3576,9 @@
       <c r="H182" s="7"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="K182" s="7"/>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" s="8"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -3411,8 +3589,9 @@
       <c r="H183" s="7"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="K183" s="7"/>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184" s="8"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -3423,8 +3602,9 @@
       <c r="H184" s="7"/>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="K184" s="7"/>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -3435,8 +3615,9 @@
       <c r="H185" s="7"/>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="K185" s="7"/>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -3447,8 +3628,9 @@
       <c r="H186" s="7"/>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="K186" s="7"/>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" s="8"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -3459,8 +3641,9 @@
       <c r="H187" s="7"/>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="K187" s="7"/>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" s="8"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -3471,8 +3654,9 @@
       <c r="H188" s="7"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="K188" s="7"/>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189" s="8"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -3483,8 +3667,9 @@
       <c r="H189" s="7"/>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="K189" s="7"/>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -3495,8 +3680,9 @@
       <c r="H190" s="7"/>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="K190" s="7"/>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" s="8"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -3507,8 +3693,9 @@
       <c r="H191" s="7"/>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="K191" s="7"/>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192" s="8"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -3519,8 +3706,9 @@
       <c r="H192" s="7"/>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="K192" s="7"/>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" s="8"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -3531,8 +3719,9 @@
       <c r="H193" s="7"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="K193" s="7"/>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194" s="8"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -3543,8 +3732,9 @@
       <c r="H194" s="7"/>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="K194" s="7"/>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195" s="8"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -3555,8 +3745,9 @@
       <c r="H195" s="7"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="K195" s="7"/>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196" s="8"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -3567,8 +3758,9 @@
       <c r="H196" s="7"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="K196" s="7"/>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197" s="8"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -3579,8 +3771,9 @@
       <c r="H197" s="7"/>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="K197" s="7"/>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198" s="8"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -3591,8 +3784,9 @@
       <c r="H198" s="7"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="K198" s="7"/>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199" s="8"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -3603,8 +3797,9 @@
       <c r="H199" s="7"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="K199" s="7"/>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200" s="8"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -3615,8 +3810,9 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="K200" s="7"/>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201" s="8"/>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -3627,8 +3823,9 @@
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="K201" s="7"/>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202" s="8"/>
       <c r="B202" s="8"/>
       <c r="C202" s="8"/>
@@ -3639,8 +3836,9 @@
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="K202" s="7"/>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
       <c r="C203" s="8"/>
@@ -3651,8 +3849,9 @@
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="K203" s="7"/>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204" s="8"/>
       <c r="B204" s="8"/>
       <c r="C204" s="8"/>
@@ -3663,8 +3862,9 @@
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="K204" s="7"/>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="8"/>
@@ -3675,8 +3875,9 @@
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="K205" s="7"/>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206" s="8"/>
       <c r="B206" s="8"/>
       <c r="C206" s="8"/>
@@ -3687,8 +3888,9 @@
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="K206" s="7"/>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207" s="8"/>
       <c r="B207" s="8"/>
       <c r="C207" s="8"/>
@@ -3699,8 +3901,9 @@
       <c r="H207" s="7"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="K207" s="7"/>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208" s="8"/>
       <c r="B208" s="8"/>
       <c r="C208" s="8"/>
@@ -3711,8 +3914,9 @@
       <c r="H208" s="7"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="K208" s="7"/>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209" s="8"/>
       <c r="B209" s="8"/>
       <c r="C209" s="8"/>
@@ -3723,8 +3927,9 @@
       <c r="H209" s="7"/>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="K209" s="7"/>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="8"/>
@@ -3735,8 +3940,9 @@
       <c r="H210" s="7"/>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="K210" s="7"/>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="8"/>
@@ -3747,8 +3953,9 @@
       <c r="H211" s="7"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="K211" s="7"/>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="8"/>
@@ -3759,8 +3966,9 @@
       <c r="H212" s="7"/>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="K212" s="7"/>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="8"/>
@@ -3771,8 +3979,9 @@
       <c r="H213" s="7"/>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="K213" s="7"/>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="8"/>
@@ -3783,8 +3992,9 @@
       <c r="H214" s="7"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="K214" s="7"/>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="8"/>
@@ -3795,8 +4005,9 @@
       <c r="H215" s="7"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="K215" s="7"/>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="8"/>
@@ -3807,8 +4018,9 @@
       <c r="H216" s="7"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="K216" s="7"/>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="8"/>
@@ -3819,8 +4031,9 @@
       <c r="H217" s="7"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="K217" s="7"/>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="8"/>
@@ -3831,8 +4044,9 @@
       <c r="H218" s="7"/>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="K218" s="7"/>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="8"/>
@@ -3843,8 +4057,9 @@
       <c r="H219" s="7"/>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="K219" s="7"/>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="8"/>
@@ -3855,8 +4070,9 @@
       <c r="H220" s="7"/>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="K220" s="7"/>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="8"/>
@@ -3867,8 +4083,9 @@
       <c r="H221" s="7"/>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="K221" s="7"/>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="8"/>
@@ -3879,8 +4096,9 @@
       <c r="H222" s="7"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="K222" s="7"/>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="8"/>
@@ -3891,8 +4109,9 @@
       <c r="H223" s="7"/>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="K223" s="7"/>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="8"/>
@@ -3903,8 +4122,9 @@
       <c r="H224" s="7"/>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="K224" s="7"/>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225" s="8"/>
       <c r="B225" s="8"/>
       <c r="C225" s="8"/>
@@ -3915,8 +4135,9 @@
       <c r="H225" s="7"/>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="K225" s="7"/>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
       <c r="C226" s="8"/>
@@ -3927,8 +4148,9 @@
       <c r="H226" s="7"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="K226" s="7"/>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227" s="8"/>
       <c r="B227" s="8"/>
       <c r="C227" s="8"/>
@@ -3939,8 +4161,9 @@
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="K227" s="7"/>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
@@ -3951,8 +4174,9 @@
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="K228" s="7"/>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
@@ -3963,8 +4187,9 @@
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="K229" s="7"/>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
@@ -3975,8 +4200,9 @@
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="K230" s="7"/>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
@@ -3987,8 +4213,9 @@
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
       <c r="J231" s="7"/>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="K231" s="7"/>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
@@ -3999,8 +4226,9 @@
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="K232" s="7"/>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
@@ -4011,8 +4239,9 @@
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="K233" s="7"/>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
@@ -4023,8 +4252,9 @@
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="K234" s="7"/>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
@@ -4035,8 +4265,9 @@
       <c r="H235" s="7"/>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="K235" s="7"/>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
@@ -4047,8 +4278,9 @@
       <c r="H236" s="7"/>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="K236" s="7"/>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
@@ -4059,8 +4291,9 @@
       <c r="H237" s="7"/>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="K237" s="7"/>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
@@ -4071,8 +4304,9 @@
       <c r="H238" s="7"/>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="K238" s="7"/>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
@@ -4083,8 +4317,9 @@
       <c r="H239" s="7"/>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="K239" s="7"/>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
@@ -4095,8 +4330,9 @@
       <c r="H240" s="7"/>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="K240" s="7"/>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
@@ -4107,8 +4343,9 @@
       <c r="H241" s="7"/>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="K241" s="7"/>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
@@ -4119,8 +4356,9 @@
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="K242" s="7"/>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
@@ -4131,8 +4369,9 @@
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="K243" s="7"/>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
@@ -4143,8 +4382,9 @@
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="K244" s="7"/>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
@@ -4155,8 +4395,9 @@
       <c r="H245" s="7"/>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="K245" s="7"/>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
@@ -4167,8 +4408,9 @@
       <c r="H246" s="7"/>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="K246" s="7"/>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
@@ -4179,8 +4421,9 @@
       <c r="H247" s="7"/>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="K247" s="7"/>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
@@ -4191,8 +4434,9 @@
       <c r="H248" s="7"/>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="K248" s="7"/>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
@@ -4203,8 +4447,9 @@
       <c r="H249" s="7"/>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="K249" s="7"/>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
@@ -4215,8 +4460,9 @@
       <c r="H250" s="7"/>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="K250" s="7"/>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
@@ -4227,8 +4473,9 @@
       <c r="H251" s="7"/>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="K251" s="7"/>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
@@ -4239,8 +4486,9 @@
       <c r="H252" s="7"/>
       <c r="I252" s="7"/>
       <c r="J252" s="7"/>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="K252" s="7"/>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
@@ -4251,8 +4499,9 @@
       <c r="H253" s="7"/>
       <c r="I253" s="7"/>
       <c r="J253" s="7"/>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="K253" s="7"/>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
@@ -4263,8 +4512,9 @@
       <c r="H254" s="7"/>
       <c r="I254" s="7"/>
       <c r="J254" s="7"/>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="K254" s="7"/>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
@@ -4275,8 +4525,9 @@
       <c r="H255" s="7"/>
       <c r="I255" s="7"/>
       <c r="J255" s="7"/>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="K255" s="7"/>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
@@ -4287,8 +4538,9 @@
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
       <c r="J256" s="7"/>
-    </row>
-    <row r="257" spans="1:11">
+      <c r="K256" s="7"/>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
@@ -4299,8 +4551,9 @@
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
       <c r="J257" s="7"/>
-    </row>
-    <row r="258" spans="1:11">
+      <c r="K257" s="7"/>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
@@ -4311,8 +4564,9 @@
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
       <c r="J258" s="7"/>
-    </row>
-    <row r="259" spans="1:11">
+      <c r="K258" s="7"/>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
@@ -4323,8 +4577,9 @@
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
       <c r="J259" s="7"/>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="K259" s="7"/>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
@@ -4335,8 +4590,9 @@
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
       <c r="J260" s="7"/>
-    </row>
-    <row r="261" spans="1:11">
+      <c r="K260" s="7"/>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
@@ -4347,8 +4603,9 @@
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
       <c r="J261" s="7"/>
-    </row>
-    <row r="262" spans="1:11">
+      <c r="K261" s="7"/>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
@@ -4359,8 +4616,9 @@
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
       <c r="J262" s="7"/>
-    </row>
-    <row r="263" spans="1:11">
+      <c r="K262" s="7"/>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
@@ -4371,8 +4629,9 @@
       <c r="H263" s="7"/>
       <c r="I263" s="7"/>
       <c r="J263" s="7"/>
-    </row>
-    <row r="264" spans="1:11">
+      <c r="K263" s="7"/>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264" s="8"/>
       <c r="B264" s="8"/>
       <c r="C264" s="8"/>
@@ -4383,8 +4642,9 @@
       <c r="H264" s="7"/>
       <c r="I264" s="7"/>
       <c r="J264" s="7"/>
-    </row>
-    <row r="265" spans="1:11">
+      <c r="K264" s="7"/>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265" s="8"/>
       <c r="B265" s="8"/>
       <c r="C265" s="8"/>
@@ -4395,8 +4655,9 @@
       <c r="H265" s="7"/>
       <c r="I265" s="7"/>
       <c r="J265" s="7"/>
-    </row>
-    <row r="266" spans="1:11">
+      <c r="K265" s="7"/>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266" s="8"/>
       <c r="B266" s="8"/>
       <c r="C266" s="8"/>
@@ -4407,8 +4668,9 @@
       <c r="H266" s="7"/>
       <c r="I266" s="7"/>
       <c r="J266" s="7"/>
-    </row>
-    <row r="267" spans="1:11">
+      <c r="K266" s="7"/>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267" s="8"/>
       <c r="B267" s="8"/>
       <c r="C267" s="8"/>
@@ -4419,8 +4681,9 @@
       <c r="H267" s="7"/>
       <c r="I267" s="7"/>
       <c r="J267" s="7"/>
-    </row>
-    <row r="268" spans="1:11">
+      <c r="K267" s="7"/>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268" s="8"/>
       <c r="B268" s="8"/>
       <c r="C268" s="8"/>
@@ -4431,8 +4694,9 @@
       <c r="H268" s="7"/>
       <c r="I268" s="7"/>
       <c r="J268" s="7"/>
-    </row>
-    <row r="269" spans="1:11">
+      <c r="K268" s="7"/>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269" s="8"/>
       <c r="B269" s="8"/>
       <c r="C269" s="8"/>
@@ -4443,8 +4707,9 @@
       <c r="H269" s="7"/>
       <c r="I269" s="7"/>
       <c r="J269" s="7"/>
-    </row>
-    <row r="270" spans="1:11">
+      <c r="K269" s="7"/>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270" s="8"/>
       <c r="B270" s="8"/>
       <c r="C270" s="8"/>
@@ -4455,8 +4720,9 @@
       <c r="H270" s="7"/>
       <c r="I270" s="7"/>
       <c r="J270" s="7"/>
-    </row>
-    <row r="271" spans="1:11">
+      <c r="K270" s="7"/>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271" s="8"/>
       <c r="B271" s="8"/>
       <c r="C271" s="8"/>
@@ -4467,8 +4733,9 @@
       <c r="H271" s="7"/>
       <c r="I271" s="7"/>
       <c r="J271" s="7"/>
-    </row>
-    <row r="272" spans="1:11">
+      <c r="K271" s="7"/>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="8"/>
@@ -4479,8 +4746,9 @@
       <c r="H272" s="7"/>
       <c r="I272" s="7"/>
       <c r="J272" s="7"/>
-    </row>
-    <row r="273" spans="1:11">
+      <c r="K272" s="7"/>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273" s="8"/>
       <c r="B273" s="8"/>
       <c r="C273" s="8"/>
@@ -4491,8 +4759,9 @@
       <c r="H273" s="7"/>
       <c r="I273" s="7"/>
       <c r="J273" s="7"/>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="K273" s="7"/>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274" s="8"/>
       <c r="B274" s="8"/>
       <c r="C274" s="8"/>
@@ -4503,8 +4772,9 @@
       <c r="H274" s="7"/>
       <c r="I274" s="7"/>
       <c r="J274" s="7"/>
-    </row>
-    <row r="275" spans="1:11">
+      <c r="K274" s="7"/>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275" s="8"/>
       <c r="B275" s="8"/>
       <c r="C275" s="8"/>
@@ -4515,8 +4785,9 @@
       <c r="H275" s="7"/>
       <c r="I275" s="7"/>
       <c r="J275" s="7"/>
-    </row>
-    <row r="276" spans="1:11">
+      <c r="K275" s="7"/>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="C276" s="8"/>
@@ -4527,8 +4798,9 @@
       <c r="H276" s="7"/>
       <c r="I276" s="7"/>
       <c r="J276" s="7"/>
-    </row>
-    <row r="277" spans="1:11">
+      <c r="K276" s="7"/>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="C277" s="8"/>
@@ -4539,8 +4811,9 @@
       <c r="H277" s="7"/>
       <c r="I277" s="7"/>
       <c r="J277" s="7"/>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="K277" s="7"/>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="C278" s="8"/>
@@ -4551,8 +4824,9 @@
       <c r="H278" s="7"/>
       <c r="I278" s="7"/>
       <c r="J278" s="7"/>
-    </row>
-    <row r="279" spans="1:11">
+      <c r="K278" s="7"/>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="C279" s="8"/>
@@ -4563,8 +4837,9 @@
       <c r="H279" s="7"/>
       <c r="I279" s="7"/>
       <c r="J279" s="7"/>
-    </row>
-    <row r="280" spans="1:11">
+      <c r="K279" s="7"/>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="C280" s="8"/>
@@ -4575,8 +4850,9 @@
       <c r="H280" s="7"/>
       <c r="I280" s="7"/>
       <c r="J280" s="7"/>
-    </row>
-    <row r="281" spans="1:11">
+      <c r="K280" s="7"/>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="C281" s="8"/>
@@ -4587,8 +4863,9 @@
       <c r="H281" s="7"/>
       <c r="I281" s="7"/>
       <c r="J281" s="7"/>
-    </row>
-    <row r="282" spans="1:11">
+      <c r="K281" s="7"/>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="C282" s="8"/>
@@ -4599,8 +4876,9 @@
       <c r="H282" s="7"/>
       <c r="I282" s="7"/>
       <c r="J282" s="7"/>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="K282" s="7"/>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="C283" s="8"/>
@@ -4611,8 +4889,9 @@
       <c r="H283" s="7"/>
       <c r="I283" s="7"/>
       <c r="J283" s="7"/>
-    </row>
-    <row r="284" spans="1:11">
+      <c r="K283" s="7"/>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="C284" s="8"/>
@@ -4623,8 +4902,9 @@
       <c r="H284" s="7"/>
       <c r="I284" s="7"/>
       <c r="J284" s="7"/>
-    </row>
-    <row r="285" spans="1:11">
+      <c r="K284" s="7"/>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="C285" s="8"/>
@@ -4635,8 +4915,9 @@
       <c r="H285" s="7"/>
       <c r="I285" s="7"/>
       <c r="J285" s="7"/>
-    </row>
-    <row r="286" spans="1:11">
+      <c r="K285" s="7"/>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="C286" s="8"/>
@@ -4647,8 +4928,9 @@
       <c r="H286" s="7"/>
       <c r="I286" s="7"/>
       <c r="J286" s="7"/>
-    </row>
-    <row r="287" spans="1:11">
+      <c r="K286" s="7"/>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="C287" s="8"/>
@@ -4659,8 +4941,9 @@
       <c r="H287" s="7"/>
       <c r="I287" s="7"/>
       <c r="J287" s="7"/>
-    </row>
-    <row r="288" spans="1:11">
+      <c r="K287" s="7"/>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="C288" s="8"/>
@@ -4671,8 +4954,9 @@
       <c r="H288" s="7"/>
       <c r="I288" s="7"/>
       <c r="J288" s="7"/>
-    </row>
-    <row r="289" spans="1:11">
+      <c r="K288" s="7"/>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="8"/>
@@ -4683,8 +4967,9 @@
       <c r="H289" s="7"/>
       <c r="I289" s="7"/>
       <c r="J289" s="7"/>
-    </row>
-    <row r="290" spans="1:11">
+      <c r="K289" s="7"/>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290" s="8"/>
       <c r="B290" s="8"/>
       <c r="C290" s="8"/>
@@ -4695,8 +4980,9 @@
       <c r="H290" s="7"/>
       <c r="I290" s="7"/>
       <c r="J290" s="7"/>
-    </row>
-    <row r="291" spans="1:11">
+      <c r="K290" s="7"/>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="C291" s="8"/>
@@ -4707,8 +4993,9 @@
       <c r="H291" s="7"/>
       <c r="I291" s="7"/>
       <c r="J291" s="7"/>
-    </row>
-    <row r="292" spans="1:11">
+      <c r="K291" s="7"/>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="C292" s="8"/>
@@ -4719,8 +5006,9 @@
       <c r="H292" s="7"/>
       <c r="I292" s="7"/>
       <c r="J292" s="7"/>
-    </row>
-    <row r="293" spans="1:11">
+      <c r="K292" s="7"/>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="C293" s="8"/>
@@ -4731,8 +5019,9 @@
       <c r="H293" s="7"/>
       <c r="I293" s="7"/>
       <c r="J293" s="7"/>
-    </row>
-    <row r="294" spans="1:11">
+      <c r="K293" s="7"/>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="C294" s="8"/>
@@ -4743,8 +5032,9 @@
       <c r="H294" s="7"/>
       <c r="I294" s="7"/>
       <c r="J294" s="7"/>
-    </row>
-    <row r="295" spans="1:11">
+      <c r="K294" s="7"/>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="C295" s="8"/>
@@ -4755,8 +5045,9 @@
       <c r="H295" s="7"/>
       <c r="I295" s="7"/>
       <c r="J295" s="7"/>
-    </row>
-    <row r="296" spans="1:11">
+      <c r="K295" s="7"/>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="C296" s="8"/>
@@ -4767,8 +5058,9 @@
       <c r="H296" s="7"/>
       <c r="I296" s="7"/>
       <c r="J296" s="7"/>
-    </row>
-    <row r="297" spans="1:11">
+      <c r="K296" s="7"/>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="C297" s="8"/>
@@ -4779,8 +5071,9 @@
       <c r="H297" s="7"/>
       <c r="I297" s="7"/>
       <c r="J297" s="7"/>
-    </row>
-    <row r="298" spans="1:11">
+      <c r="K297" s="7"/>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="C298" s="8"/>
@@ -4791,8 +5084,9 @@
       <c r="H298" s="7"/>
       <c r="I298" s="7"/>
       <c r="J298" s="7"/>
-    </row>
-    <row r="299" spans="1:11">
+      <c r="K298" s="7"/>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="C299" s="8"/>
@@ -4803,8 +5097,9 @@
       <c r="H299" s="7"/>
       <c r="I299" s="7"/>
       <c r="J299" s="7"/>
-    </row>
-    <row r="300" spans="1:11">
+      <c r="K299" s="7"/>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="C300" s="8"/>
@@ -4815,8 +5110,9 @@
       <c r="H300" s="7"/>
       <c r="I300" s="7"/>
       <c r="J300" s="7"/>
-    </row>
-    <row r="301" spans="1:11">
+      <c r="K300" s="7"/>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="C301" s="8"/>
@@ -4827,6 +5123,7 @@
       <c r="H301" s="7"/>
       <c r="I301" s="7"/>
       <c r="J301" s="7"/>
+      <c r="K301" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/export_employee.xlsx
+++ b/export_employee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t xml:space="preserve">DILG IV - A </t>
   </si>
@@ -71,24 +71,27 @@
     <t>ADAJAR</t>
   </si>
   <si>
+    <t>Admin. Aide VI</t>
+  </si>
+  <si>
+    <t>Records Officer</t>
+  </si>
+  <si>
+    <t>09569229434</t>
+  </si>
+  <si>
+    <t>jhaniene33@gmail.com</t>
+  </si>
+  <si>
+    <t>September 13</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
     <t>Admin. Aide IV</t>
   </si>
   <si>
-    <t>Records Officer</t>
-  </si>
-  <si>
-    <t>09569229434</t>
-  </si>
-  <si>
-    <t>jhaniene33@gmail.com</t>
-  </si>
-  <si>
-    <t>September 13</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>09438347513</t>
   </si>
   <si>
@@ -149,126 +152,123 @@
     <t>mimmoalvarez929@gmail.com</t>
   </si>
   <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>ANDRES</t>
+    <t>CHRISTIE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ARCEGA</t>
+  </si>
+  <si>
+    <t>LGOO VIII</t>
+  </si>
+  <si>
+    <t>09088887019</t>
+  </si>
+  <si>
+    <t>abutalchristie@yahoo.com</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>BAÃƒÂƒÃ‚Â‘EZ</t>
+  </si>
+  <si>
+    <t>09985637338</t>
+  </si>
+  <si>
+    <t>abril424@gmail.com</t>
+  </si>
+  <si>
+    <t>ARLENE</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>BANAAG</t>
+  </si>
+  <si>
+    <t>LGOO III</t>
+  </si>
+  <si>
+    <t>09266118032</t>
+  </si>
+  <si>
+    <t>alhendm30@gmail.com</t>
+  </si>
+  <si>
+    <t>VICTORIA CHRISTIE</t>
+  </si>
+  <si>
+    <t>BUNYI</t>
+  </si>
+  <si>
+    <t>09167376626</t>
+  </si>
+  <si>
+    <t>christiebunyi@gmail.com</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Database Administrator</t>
+  </si>
+  <si>
+    <t>09159118353</t>
+  </si>
+  <si>
+    <t>lemuel.dalope@gmail.com</t>
+  </si>
+  <si>
+    <t>July 10</t>
+  </si>
+  <si>
+    <t>TEODORICA</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>09065804168</t>
+  </si>
+  <si>
+    <t>castilloteodorica@gmail.com</t>
+  </si>
+  <si>
+    <t>BATILDE AGNES</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>CILINDRO</t>
+  </si>
+  <si>
+    <t>09273793166</t>
+  </si>
+  <si>
+    <t>cilindroagnes@gmail.com</t>
+  </si>
+  <si>
+    <t>NERISSA</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
   </si>
   <si>
     <t>LGOO VII</t>
   </si>
   <si>
-    <t>OIC-PROVINCIAL DIRECTOR</t>
-  </si>
-  <si>
-    <t>0915-372-9282</t>
-  </si>
-  <si>
-    <t>dilglagunaclusterb3@gmail.com</t>
-  </si>
-  <si>
-    <t>CHRISTIE</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ARCEGA</t>
-  </si>
-  <si>
-    <t>LGOO VIII</t>
-  </si>
-  <si>
-    <t>09088887019</t>
-  </si>
-  <si>
-    <t>abutalchristie@yahoo.com</t>
-  </si>
-  <si>
-    <t>APRIL</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>BAÃÂEZ</t>
-  </si>
-  <si>
-    <t>09985637338</t>
-  </si>
-  <si>
-    <t>abril424@gmail.com</t>
-  </si>
-  <si>
-    <t>ARLENE</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>BANAAG</t>
-  </si>
-  <si>
-    <t>LGOO III</t>
-  </si>
-  <si>
-    <t>09266118032</t>
-  </si>
-  <si>
-    <t>alhendm30@gmail.com</t>
-  </si>
-  <si>
-    <t>VICTORIA CHRISTIE</t>
-  </si>
-  <si>
-    <t>BUNYI</t>
-  </si>
-  <si>
-    <t>09167376626</t>
-  </si>
-  <si>
-    <t>christiebunyi@gmail.com</t>
-  </si>
-  <si>
-    <t>TEODORICA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>09065804168</t>
-  </si>
-  <si>
-    <t>castilloteodorica@gmail.com</t>
-  </si>
-  <si>
-    <t>BATILDE AGNES</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>CILINDRO</t>
-  </si>
-  <si>
-    <t>09273793166</t>
-  </si>
-  <si>
-    <t>cilindroagnes@gmail.com</t>
-  </si>
-  <si>
-    <t>NERISSA</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
     <t>09085083110</t>
   </si>
   <si>
@@ -278,9 +278,6 @@
     <t>FELICIDAD</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>CUADRO</t>
   </si>
   <si>
@@ -353,7 +350,7 @@
     <t>MYLA</t>
   </si>
   <si>
-    <t>MAÃIBO</t>
+    <t>MAÃƒÂ‘IBO</t>
   </si>
   <si>
     <t>09178853203</t>
@@ -371,9 +368,6 @@
     <t>ONA</t>
   </si>
   <si>
-    <t>Admin. Aide VI</t>
-  </si>
-  <si>
     <t>09202189669</t>
   </si>
   <si>
@@ -393,27 +387,6 @@
   </si>
   <si>
     <t>augustosangabriel@ymail.com</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>MLGOO</t>
-  </si>
-  <si>
-    <t>0975-476-0305</t>
-  </si>
-  <si>
-    <t>aldrich28.as@gmail.com</t>
-  </si>
-  <si>
-    <t>November 21</t>
   </si>
   <si>
     <t>JERRICK VINCENT</t>
@@ -980,135 +953,133 @@
         <v>3</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="F17" s="8"/>
       <c r="G17" s="7" t="s">
         <v>49</v>
       </c>
@@ -1120,7 +1091,7 @@
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1137,38 +1108,38 @@
         <v>3</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="I18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="7" t="s">
@@ -1182,7 +1153,7 @@
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1190,140 +1161,142 @@
         <v>62</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="G21" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>75</v>
-      </c>
       <c r="I22" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="I23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="7" t="s">
@@ -1337,7 +1310,7 @@
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1345,314 +1318,294 @@
         <v>86</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="I25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="I26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="I27" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="I28" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="I29" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="I30" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>129</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8"/>

--- a/export_employee.xlsx
+++ b/export_employee.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
   <si>
     <t xml:space="preserve">DILG IV - A </t>
   </si>
@@ -62,6 +62,51 @@
     <t>BIRTHDAY</t>
   </si>
   <si>
+    <t>JANE ERASMUS MARIE</t>
+  </si>
+  <si>
+    <t>MARTIJA</t>
+  </si>
+  <si>
+    <t>ACAIN</t>
+  </si>
+  <si>
+    <t>LGOO II</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>0923-928-9479</t>
+  </si>
+  <si>
+    <t>jane.martija@yahoo.com</t>
+  </si>
+  <si>
+    <t>jane.martija0129@gmail.com</t>
+  </si>
+  <si>
+    <t>January 29</t>
+  </si>
+  <si>
+    <t>CRISTYVIEN</t>
+  </si>
+  <si>
+    <t>ANDAL</t>
+  </si>
+  <si>
+    <t>ACLAN</t>
+  </si>
+  <si>
+    <t>0905-267-9336</t>
+  </si>
+  <si>
+    <t>cristyvien_aclan04@yahoo.com</t>
+  </si>
+  <si>
+    <t>September 04</t>
+  </si>
+  <si>
     <t>JOHN EVERT</t>
   </si>
   <si>
@@ -77,45 +122,60 @@
     <t>Records Officer</t>
   </si>
   <si>
-    <t>09569229434</t>
+    <t>0956-922-9434</t>
   </si>
   <si>
     <t>jhaniene33@gmail.com</t>
   </si>
   <si>
+    <t>dilg4a.batangas@gmail.com</t>
+  </si>
+  <si>
     <t>September 13</t>
   </si>
   <si>
-    <t>J</t>
+    <t>MARIVIC</t>
+  </si>
+  <si>
+    <t>PENA</t>
+  </si>
+  <si>
+    <t>ADAYA</t>
   </si>
   <si>
     <t>Admin. Aide IV</t>
   </si>
   <si>
-    <t>09438347513</t>
+    <t>0917-511-4875</t>
+  </si>
+  <si>
+    <t>ypa_iaa@yahoo.com</t>
+  </si>
+  <si>
+    <t>dilgtanauancity3@gmail.com</t>
+  </si>
+  <si>
+    <t>October 02</t>
+  </si>
+  <si>
+    <t>RODERICK</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>LGOO VI</t>
+  </si>
+  <si>
+    <t>09666853027</t>
+  </si>
+  <si>
+    <t>engr.adaya@gmail.com</t>
   </si>
   <si>
     <t>November 30</t>
   </si>
   <si>
-    <t>RODERICK</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>ADAYA</t>
-  </si>
-  <si>
-    <t>LGOO VI</t>
-  </si>
-  <si>
-    <t>09666853027</t>
-  </si>
-  <si>
-    <t>engr.adaya@gmail.com</t>
-  </si>
-  <si>
     <t>FRANZ ALLEN</t>
   </si>
   <si>
@@ -128,7 +188,11 @@
     <t>LGOO V</t>
   </si>
   <si>
-    <t>09988658060</t>
+    <t xml:space="preserve">OIC-Senior Staff
+</t>
+  </si>
+  <si>
+    <t>0998-865-8060</t>
   </si>
   <si>
     <t>franzallencadel@gmail.com</t>
@@ -152,6 +216,31 @@
     <t>mimmoalvarez929@gmail.com</t>
   </si>
   <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>LGOO VII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OIC-Provincial Director
+</t>
+  </si>
+  <si>
+    <t>0916-142-6526</t>
+  </si>
+  <si>
+    <t>abbieandres0105@gmail.com</t>
+  </si>
+  <si>
+    <t>January 01</t>
+  </si>
+  <si>
     <t>CHRISTIE</t>
   </si>
   <si>
@@ -161,225 +250,756 @@
     <t>ARCEGA</t>
   </si>
   <si>
-    <t>LGOO VIII</t>
-  </si>
-  <si>
-    <t>09088887019</t>
+    <t>0908-888-7019</t>
   </si>
   <si>
     <t>abutalchristie@yahoo.com</t>
   </si>
   <si>
+    <t>BRIAN</t>
+  </si>
+  <si>
+    <t>BACALOCOS</t>
+  </si>
+  <si>
+    <t>BALLON</t>
+  </si>
+  <si>
+    <t>09487026220</t>
+  </si>
+  <si>
+    <t>brianballon1985@gmail.com</t>
+  </si>
+  <si>
+    <t>January 30</t>
+  </si>
+  <si>
+    <t>ARLENE</t>
+  </si>
+  <si>
+    <t>DE MESA</t>
+  </si>
+  <si>
+    <t>BANAAG</t>
+  </si>
+  <si>
+    <t>LGOO III</t>
+  </si>
+  <si>
+    <t>09266118032</t>
+  </si>
+  <si>
+    <t>alhendm30@gmail.com</t>
+  </si>
+  <si>
+    <t>March 01</t>
+  </si>
+  <si>
     <t>APRIL</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>BAÃƒÂƒÃ‚Â‘EZ</t>
-  </si>
-  <si>
-    <t>09985637338</t>
+    <t>BANEZ</t>
+  </si>
+  <si>
+    <t>MLGOO</t>
+  </si>
+  <si>
+    <t>0998-563-7338</t>
   </si>
   <si>
     <t>abril424@gmail.com</t>
   </si>
   <si>
-    <t>ARLENE</t>
+    <t>April 24</t>
+  </si>
+  <si>
+    <t>CHRISTOFFER</t>
+  </si>
+  <si>
+    <t>DE LAS ALAS</t>
+  </si>
+  <si>
+    <t>BUNYI</t>
+  </si>
+  <si>
+    <t>PROGRAM OFFICER - MBTRG</t>
+  </si>
+  <si>
+    <t>MBRTG Program Officer</t>
+  </si>
+  <si>
+    <t>0905-246-6999</t>
+  </si>
+  <si>
+    <t>christofferbunyi@yahoo.com</t>
+  </si>
+  <si>
+    <t>manilabay.batangas@gmail.com</t>
+  </si>
+  <si>
+    <t>April 27</t>
+  </si>
+  <si>
+    <t>VICTORIA CHRISTIE</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>BANAAG</t>
-  </si>
-  <si>
-    <t>LGOO III</t>
-  </si>
-  <si>
-    <t>09266118032</t>
-  </si>
-  <si>
-    <t>alhendm30@gmail.com</t>
-  </si>
-  <si>
-    <t>VICTORIA CHRISTIE</t>
-  </si>
-  <si>
-    <t>BUNYI</t>
-  </si>
-  <si>
     <t>09167376626</t>
   </si>
   <si>
     <t>christiebunyi@gmail.com</t>
   </si>
   <si>
+    <t>KYRA CRISTA</t>
+  </si>
+  <si>
+    <t>PLATON</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>Admin. Asst. II</t>
+  </si>
+  <si>
+    <t>0916-747-3882</t>
+  </si>
+  <si>
+    <t>kiraracastillo@gmail.com</t>
+  </si>
+  <si>
+    <t>batangasacctng@gmail.com</t>
+  </si>
+  <si>
+    <t>December 16</t>
+  </si>
+  <si>
+    <t>TEODORICA</t>
+  </si>
+  <si>
+    <t>0906-580-4168</t>
+  </si>
+  <si>
+    <t>castilloteodorica@gmail.com</t>
+  </si>
+  <si>
+    <t>July 01</t>
+  </si>
+  <si>
+    <t>BATILDE AGNES</t>
+  </si>
+  <si>
+    <t>LASALA</t>
+  </si>
+  <si>
+    <t>CILINDRO</t>
+  </si>
+  <si>
+    <t>0927-379-3166</t>
+  </si>
+  <si>
+    <t>cilindroagnes@gmail.com</t>
+  </si>
+  <si>
+    <t>dilgagoncillo2017@gmail.com</t>
+  </si>
+  <si>
+    <t>January 26</t>
+  </si>
+  <si>
+    <t>NERISSA</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>Cluster Head</t>
+  </si>
+  <si>
+    <t>0908-508-3110</t>
+  </si>
+  <si>
+    <t>nerissagcontreras@gmail.com</t>
+  </si>
+  <si>
+    <t>dilgbatangas.c2@gmail.com</t>
+  </si>
+  <si>
+    <t>FELICIDAD</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Database Administrator</t>
-  </si>
-  <si>
-    <t>09159118353</t>
-  </si>
-  <si>
-    <t>lemuel.dalope@gmail.com</t>
+    <t>CUADRO</t>
+  </si>
+  <si>
+    <t>09369922342</t>
+  </si>
+  <si>
+    <t>dadadilg@yahoo.com</t>
+  </si>
+  <si>
+    <t>ESTHER</t>
+  </si>
+  <si>
+    <t>DATOR</t>
+  </si>
+  <si>
+    <t>CLGOO</t>
+  </si>
+  <si>
+    <t>0917-504-7084</t>
+  </si>
+  <si>
+    <t>estherbdator@gmail.com</t>
+  </si>
+  <si>
+    <t>JOSE DOROTEO</t>
+  </si>
+  <si>
+    <t>CUENTO</t>
+  </si>
+  <si>
+    <t>0932-083-9723</t>
+  </si>
+  <si>
+    <t>mayi0924_demesa@yahoo.com</t>
+  </si>
+  <si>
+    <t>September 09</t>
+  </si>
+  <si>
+    <t>VOLTAIRE REVERENDO</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>DIHAN</t>
+  </si>
+  <si>
+    <t>09564024394</t>
+  </si>
+  <si>
+    <t>voltaire_dihan@yahoo.com</t>
+  </si>
+  <si>
+    <t>JUEL FATIMA</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>DIJAN-TRINIDAD</t>
+  </si>
+  <si>
+    <t>0939-914-3214</t>
+  </si>
+  <si>
+    <t>jfmdijan.trinidad@yahoo.com</t>
+  </si>
+  <si>
+    <t>dilgbatangas.c3@gmail.com</t>
+  </si>
+  <si>
+    <t>July 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARCHELO </t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUAY </t>
+  </si>
+  <si>
+    <t>ENGR. II</t>
+  </si>
+  <si>
+    <t>0995-399-2699</t>
+  </si>
+  <si>
+    <t>arc_helo@yahoo.com</t>
+  </si>
+  <si>
+    <t>May 26</t>
+  </si>
+  <si>
+    <t>RIZZALIE JOY</t>
+  </si>
+  <si>
+    <t>SEMIRA</t>
+  </si>
+  <si>
+    <t>EBREO</t>
+  </si>
+  <si>
+    <t>0920-969-5102</t>
+  </si>
+  <si>
+    <t>rizzaliejoyebreo@yahoo.com</t>
+  </si>
+  <si>
+    <t>Capitol Compound, Kumintang  Ibaba, Batangas City</t>
+  </si>
+  <si>
+    <t>January 12</t>
+  </si>
+  <si>
+    <t>KERMITH GILBERT</t>
+  </si>
+  <si>
+    <t>FETIZANAN</t>
+  </si>
+  <si>
+    <t>FADRI</t>
+  </si>
+  <si>
+    <t>0917-589-4974</t>
+  </si>
+  <si>
+    <t>coolkenn86@yahoo.com</t>
+  </si>
+  <si>
+    <t>nasugbudilgoffice@gmail.com</t>
+  </si>
+  <si>
+    <t>October 03</t>
+  </si>
+  <si>
+    <t>JONAS EMMANUEL</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>FAJARDA</t>
+  </si>
+  <si>
+    <t>0915-131-2598</t>
+  </si>
+  <si>
+    <t>fajarda.jonas2018@gmail.com</t>
+  </si>
+  <si>
+    <t>October 12</t>
+  </si>
+  <si>
+    <t>JULIETA MYLENE</t>
+  </si>
+  <si>
+    <t>FOLLERO</t>
+  </si>
+  <si>
+    <t>09176385421</t>
+  </si>
+  <si>
+    <t>mylene_32004@yahoo.com</t>
+  </si>
+  <si>
+    <t>CELIO</t>
+  </si>
+  <si>
+    <t>CONSEBIDO</t>
+  </si>
+  <si>
+    <t>FRANCIA</t>
+  </si>
+  <si>
+    <t>0927-284-4345</t>
+  </si>
+  <si>
+    <t>celiofrancia@gmail.com</t>
+  </si>
+  <si>
+    <t>dilg4a.bauanbatangas@gmail.com</t>
+  </si>
+  <si>
+    <t>July 09</t>
+  </si>
+  <si>
+    <t>RODEL</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>GAMBAN</t>
+  </si>
+  <si>
+    <t>0995-450-6288</t>
+  </si>
+  <si>
+    <t>giant_mix@yahoo.com</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>BANTOTO</t>
+  </si>
+  <si>
+    <t>GAONA</t>
+  </si>
+  <si>
+    <t>0917-564-0114</t>
+  </si>
+  <si>
+    <t>joelgaona@yahoo.com</t>
+  </si>
+  <si>
+    <t>January 14</t>
+  </si>
+  <si>
+    <t>PEARL RYZEL</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>0912-216-7155</t>
+  </si>
+  <si>
+    <t>rgarcia.prl@gmail.com</t>
+  </si>
+  <si>
+    <t>October 17</t>
+  </si>
+  <si>
+    <t>KATHERINE GRACE</t>
+  </si>
+  <si>
+    <t>MATIAG</t>
+  </si>
+  <si>
+    <t>0928-439-5934</t>
+  </si>
+  <si>
+    <t>katherinegracegarcia@gmail.com</t>
+  </si>
+  <si>
+    <t>dilgbats.lgcds@gmail.com</t>
+  </si>
+  <si>
+    <t>August 18</t>
+  </si>
+  <si>
+    <t>RONALD JAMES</t>
+  </si>
+  <si>
+    <t>BALICACO</t>
+  </si>
+  <si>
+    <t>GUERRERO</t>
+  </si>
+  <si>
+    <t>ENGR. III</t>
+  </si>
+  <si>
+    <t>Job Order</t>
+  </si>
+  <si>
+    <t>0995-746-2217</t>
+  </si>
+  <si>
+    <t>vbalicaco@yahoo.com</t>
+  </si>
+  <si>
+    <t>dilgbatangas.cmgp@gmail.com</t>
+  </si>
+  <si>
+    <t>February 23</t>
+  </si>
+  <si>
+    <t>EDGARDO</t>
+  </si>
+  <si>
+    <t>GUIRRE</t>
+  </si>
+  <si>
+    <t>Admin. Aide III</t>
+  </si>
+  <si>
+    <t>09279505356</t>
+  </si>
+  <si>
+    <t>garryboyg@gmail.com</t>
+  </si>
+  <si>
+    <t>DIOSDADO</t>
+  </si>
+  <si>
+    <t>LA ROSA</t>
+  </si>
+  <si>
+    <t>0977-809-7895</t>
+  </si>
+  <si>
+    <t>dadodilg@gmail.com</t>
+  </si>
+  <si>
+    <t>November 08</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>PALO</t>
+  </si>
+  <si>
+    <t>LASQUITES</t>
+  </si>
+  <si>
+    <t>0926-436-1087</t>
+  </si>
+  <si>
+    <t>roberto.lasquites1987@gmail.com</t>
+  </si>
+  <si>
+    <t>October 18</t>
+  </si>
+  <si>
+    <t>MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>LLANTO</t>
+  </si>
+  <si>
+    <t>0917-717-0204</t>
+  </si>
+  <si>
+    <t>miocoronallanto@gmail.com</t>
+  </si>
+  <si>
+    <t>DENNIS</t>
+  </si>
+  <si>
+    <t>PANOPIO</t>
+  </si>
+  <si>
+    <t>LUTERO</t>
+  </si>
+  <si>
+    <t>0998-850-4966</t>
+  </si>
+  <si>
+    <t>dennislutero@yahoo.com</t>
+  </si>
+  <si>
+    <t>July 15</t>
+  </si>
+  <si>
+    <t>MYLA</t>
+  </si>
+  <si>
+    <t>MANIBO</t>
   </si>
   <si>
     <t>July 10</t>
   </si>
   <si>
-    <t>TEODORICA</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>09065804168</t>
-  </si>
-  <si>
-    <t>castilloteodorica@gmail.com</t>
-  </si>
-  <si>
-    <t>BATILDE AGNES</t>
+    <t>EFREN</t>
+  </si>
+  <si>
+    <t>MANTUANO</t>
+  </si>
+  <si>
+    <t>dilglipa3@gmail.com</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>MARQUEZ</t>
+  </si>
+  <si>
+    <t>0927-313-3462</t>
+  </si>
+  <si>
+    <t>mariabmarquezmlgoo@yahoo.com</t>
+  </si>
+  <si>
+    <t>MARK JOSEPH</t>
+  </si>
+  <si>
+    <t>March 09</t>
+  </si>
+  <si>
+    <t>APRIL JOY</t>
+  </si>
+  <si>
+    <t>0998-590-8237</t>
+  </si>
+  <si>
+    <t>april.marquez8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESSA MARIE </t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>0906-045-9494</t>
+  </si>
+  <si>
+    <t>jessa18.mendoza@gmail.com</t>
+  </si>
+  <si>
+    <t>dilglipa5@gmail.com</t>
+  </si>
+  <si>
+    <t>December 01</t>
+  </si>
+  <si>
+    <t>ROSELYN</t>
+  </si>
+  <si>
+    <t>MERCADO</t>
+  </si>
+  <si>
+    <t>0917-808-1511</t>
+  </si>
+  <si>
+    <t>ylian_mercado@yahoo.com</t>
+  </si>
+  <si>
+    <t>dilgsanjosebatangas2@gmail.com</t>
+  </si>
+  <si>
+    <t>December 08</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>OCAMPO</t>
+  </si>
+  <si>
+    <t>0927-084-4849</t>
+  </si>
+  <si>
+    <t>jaocampomj@gmail.com</t>
+  </si>
+  <si>
+    <t>jaocampomj082@gmail.com</t>
+  </si>
+  <si>
+    <t>July 27</t>
+  </si>
+  <si>
+    <t>RHODORA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ONA</t>
+  </si>
+  <si>
+    <t>0920-218-9669</t>
+  </si>
+  <si>
+    <t>onarhodora@yahoo.com</t>
+  </si>
+  <si>
+    <t>April 18</t>
+  </si>
+  <si>
+    <t>DESMARI FRANCIA</t>
+  </si>
+  <si>
+    <t>PARILLA</t>
+  </si>
+  <si>
+    <t>0998-556-7324</t>
+  </si>
+  <si>
+    <t>franciadesmari@gmail.com</t>
+  </si>
+  <si>
+    <t>CHARLOTTE FLOR</t>
+  </si>
+  <si>
+    <t>QUIZA</t>
+  </si>
+  <si>
+    <t>0998-099-____</t>
+  </si>
+  <si>
+    <t>charlottequiza24@gmail.com</t>
+  </si>
+  <si>
+    <t>padregarciadilg@gmail.com</t>
+  </si>
+  <si>
+    <t>ROSITA</t>
+  </si>
+  <si>
+    <t>RABANO</t>
+  </si>
+  <si>
+    <t>0922-838-5331</t>
+  </si>
+  <si>
+    <t>lucillegarciarabano@gmail.com</t>
+  </si>
+  <si>
+    <t>May 28</t>
+  </si>
+  <si>
+    <t>LESLIE ANN</t>
+  </si>
+  <si>
+    <t>RECTO</t>
+  </si>
+  <si>
+    <t>0997-982-4085</t>
+  </si>
+  <si>
+    <t>lesliann_recto@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>SAGUN</t>
+  </si>
+  <si>
+    <t>0999-993-8279</t>
+  </si>
+  <si>
+    <t>angelicamsagun@gmail.com</t>
+  </si>
+  <si>
+    <t>dilgstotomas1@gmail.com</t>
+  </si>
+  <si>
+    <t>October 04</t>
+  </si>
+  <si>
+    <t>AUGUSTO</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>CILINDRO</t>
-  </si>
-  <si>
-    <t>09273793166</t>
-  </si>
-  <si>
-    <t>cilindroagnes@gmail.com</t>
-  </si>
-  <si>
-    <t>NERISSA</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>LGOO VII</t>
-  </si>
-  <si>
-    <t>09085083110</t>
-  </si>
-  <si>
-    <t>nerissagcontreras@gmail.com</t>
-  </si>
-  <si>
-    <t>FELICIDAD</t>
-  </si>
-  <si>
-    <t>CUADRO</t>
-  </si>
-  <si>
-    <t>09369922342</t>
-  </si>
-  <si>
-    <t>dadadilg@yahoo.com</t>
-  </si>
-  <si>
-    <t>VOLTAIRE REVERENDO</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>DIHAN</t>
-  </si>
-  <si>
-    <t>09564024394</t>
-  </si>
-  <si>
-    <t>voltaire_dihan@yahoo.com</t>
-  </si>
-  <si>
-    <t>JULIETA MYLENE</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>FOLLERO</t>
-  </si>
-  <si>
-    <t>LGOO II</t>
-  </si>
-  <si>
-    <t>09176385421</t>
-  </si>
-  <si>
-    <t>mylene_32004@yahoo.com</t>
-  </si>
-  <si>
-    <t>DIOSDADO</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>LA ROSA</t>
-  </si>
-  <si>
-    <t>09778097895</t>
-  </si>
-  <si>
-    <t>mlgoostateresita@yahoo.com</t>
-  </si>
-  <si>
-    <t>MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>LLANTO</t>
-  </si>
-  <si>
-    <t>09177170204</t>
-  </si>
-  <si>
-    <t>miocoronallanto@gmail.com</t>
-  </si>
-  <si>
-    <t>MYLA</t>
-  </si>
-  <si>
-    <t>MAÃƒÂ‘IBO</t>
-  </si>
-  <si>
-    <t>09178853203</t>
-  </si>
-  <si>
-    <t>dilglemerybatangas@gmail.com</t>
-  </si>
-  <si>
-    <t>RHODORA</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ONA</t>
-  </si>
-  <si>
-    <t>09202189669</t>
-  </si>
-  <si>
-    <t>onarhodora@yahoo.com</t>
-  </si>
-  <si>
-    <t>April 18</t>
-  </si>
-  <si>
-    <t>AUGUSTO</t>
-  </si>
-  <si>
     <t>SAN GABRIEL</t>
   </si>
   <si>
@@ -389,16 +1009,196 @@
     <t>augustosangabriel@ymail.com</t>
   </si>
   <si>
+    <t>VICTORIA AMOR</t>
+  </si>
+  <si>
+    <t>0917-537-9955</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>0936-218-3522</t>
+  </si>
+  <si>
+    <t>aldrich28.as@gmail.com</t>
+  </si>
+  <si>
+    <t>dilg4a.batangas.balayan@gmail.com</t>
+  </si>
+  <si>
+    <t>November 21</t>
+  </si>
+  <si>
+    <t>GERLIE</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>SEBASTIAN</t>
+  </si>
+  <si>
+    <t>0977-851-1479</t>
+  </si>
+  <si>
+    <t>gerliepena.79@gmail.com</t>
+  </si>
+  <si>
+    <t>LORNA</t>
+  </si>
+  <si>
+    <t>09175010329</t>
+  </si>
+  <si>
+    <t>lornasilva@yahoo.com</t>
+  </si>
+  <si>
+    <t>JOSEPH</t>
+  </si>
+  <si>
+    <t>NERA</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>OIC-MLGOO</t>
+  </si>
+  <si>
+    <t>0917-625-2292</t>
+  </si>
+  <si>
+    <t>dilgbatangas.sts@gmail.com</t>
+  </si>
+  <si>
+    <t>dilgtingloy@gmail.com</t>
+  </si>
+  <si>
+    <t>April 25</t>
+  </si>
+  <si>
+    <t>TOMAS</t>
+  </si>
+  <si>
+    <t>EMBATE</t>
+  </si>
+  <si>
+    <t>TAMAYOR</t>
+  </si>
+  <si>
+    <t>0920-290-6627</t>
+  </si>
+  <si>
+    <t>dilgcalabarzon_lgmed@yahoo.com.ph</t>
+  </si>
+  <si>
+    <t>838-5323</t>
+  </si>
+  <si>
+    <t>September 08</t>
+  </si>
+  <si>
+    <t>TEMPLO</t>
+  </si>
+  <si>
+    <t>0917-315-1308</t>
+  </si>
+  <si>
+    <t>fbtemplo2017@gmail.com</t>
+  </si>
+  <si>
+    <t>February 16</t>
+  </si>
+  <si>
+    <t>MARIA TERESA</t>
+  </si>
+  <si>
+    <t>TIPA</t>
+  </si>
+  <si>
+    <t>0919-366-8189</t>
+  </si>
+  <si>
+    <t>mstess_12@yahoo.com</t>
+  </si>
+  <si>
+    <t>GLORIA PAZ</t>
+  </si>
+  <si>
+    <t>TOLEDO</t>
+  </si>
+  <si>
+    <t>09958567371</t>
+  </si>
+  <si>
+    <t>wingtoledo@yahoo.com</t>
+  </si>
+  <si>
+    <t>RANDOLF</t>
+  </si>
+  <si>
+    <t>CAYETANO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ENGINEER IV</t>
+  </si>
+  <si>
+    <t>engr.randolfc.torres@gmail.com</t>
+  </si>
+  <si>
+    <t>October 13</t>
+  </si>
+  <si>
+    <t>JANICE</t>
+  </si>
+  <si>
+    <t>MALALUAN</t>
+  </si>
+  <si>
+    <t>UMALI</t>
+  </si>
+  <si>
+    <t>0949-444-5508</t>
+  </si>
+  <si>
+    <t>jnice27umali@yahoo.com</t>
+  </si>
+  <si>
+    <t>February 27</t>
+  </si>
+  <si>
     <t>JERRICK VINCENT</t>
   </si>
   <si>
-    <t>UMALI</t>
-  </si>
-  <si>
-    <t>09151194500</t>
+    <t>0915-119-4500</t>
   </si>
   <si>
     <t>jerrickumali@rocketmail.com</t>
+  </si>
+  <si>
+    <t>LEONARD</t>
+  </si>
+  <si>
+    <t>VILLENA</t>
+  </si>
+  <si>
+    <t>0999-883-9847</t>
+  </si>
+  <si>
+    <t>leonard.villena@yahoo.com</t>
+  </si>
+  <si>
+    <t>September 02</t>
   </si>
 </sst>
 </file>
@@ -812,23 +1612,23 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="true" style="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="true" style="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="true" style="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="true" style="1"/>
-    <col min="5" max="5" width="18.21875" customWidth="true" style="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="true" style="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="true" style="1"/>
-    <col min="8" max="8" width="25.77734375" customWidth="true" style="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="true" style="1"/>
-    <col min="10" max="10" width="22.6640625" customWidth="true" style="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="true" style="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true" style="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="true" style="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true" style="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="true" style="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="true" style="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="true" style="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="true" style="1"/>
+    <col min="10" max="10" width="22.7109375" customWidth="true" style="1"/>
     <col min="11" max="11" width="12" customWidth="true" style="1"/>
-    <col min="12" max="12" width="8.88671875" customWidth="true" style="1"/>
+    <col min="12" max="12" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" customHeight="1" ht="13.8">
+    <row r="3" spans="1:12" customHeight="1" ht="13.9">
       <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
@@ -836,7 +1636,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:12" customHeight="1" ht="13.8">
+    <row r="4" spans="1:12" customHeight="1" ht="13.9">
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -856,13 +1656,13 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="8" spans="1:12" customHeight="1" ht="17.4">
+    <row r="8" spans="1:12" customHeight="1" ht="18">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:12" customHeight="1" ht="17.4">
+    <row r="9" spans="1:12" customHeight="1" ht="18">
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
@@ -934,1250 +1734,2184 @@
       <c r="I12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>34</v>
+      </c>
       <c r="G14" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>57</v>
+      </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="K17" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="K19" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G20" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="G23" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="8"/>
+        <v>102</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>103</v>
+      </c>
       <c r="G24" s="7" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="K24" s="7" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J26" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="K26" s="7" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="8"/>
+        <v>49</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="G27" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>122</v>
+      </c>
       <c r="K27" s="7" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="K28" s="7" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="G29" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J29" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="K29" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="7" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G32" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="J32" s="7"/>
       <c r="K32" s="7" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="A34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="A35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
+      <c r="A36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="A37" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="A38" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
+      <c r="K38" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
+      <c r="A40" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F41" s="8"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>206</v>
+      </c>
       <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="K41" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="A42" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
+      <c r="K42" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="F44" s="8"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="A45" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="F46" s="8"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
+      <c r="K46" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="A47" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="A48" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>248</v>
+      </c>
       <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
+      <c r="K48" s="7" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="A49" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>253</v>
+      </c>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="A50" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>258</v>
+      </c>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="7" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
+      <c r="A51" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="K51" s="7" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="F52" s="8"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="G52" s="7">
+        <v>9278419796</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="I52" s="7">
+        <v>9278419796</v>
+      </c>
       <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
+      <c r="K52" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="A53" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="K53" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
+      <c r="K54" s="7" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="F55" s="8"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="A56" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="A57" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
+      <c r="A58" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
+      <c r="A59" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="K59" s="7" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F60" s="8"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>303</v>
+      </c>
       <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
+      <c r="K60" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="A61" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F62" s="8"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>312</v>
+      </c>
       <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="K62" s="7" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F63" s="8"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="K63" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
+      <c r="A64" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="J64" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F65" s="8"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="K65" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="7"/>
+      <c r="A66" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
+      <c r="I66" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
+      <c r="K66" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="A67" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
+      <c r="A68" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>342</v>
+      </c>
       <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
+      <c r="K68" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F69" s="8"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
+      <c r="G69" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>345</v>
+      </c>
       <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="K69" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
+      <c r="A70" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="71" spans="1:12">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="A71" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
+      <c r="A72" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
+      <c r="A73" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>368</v>
+      </c>
       <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="K73" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="74" spans="1:12">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="A74" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="F74" s="8"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
+      <c r="K74" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="75" spans="1:12">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="A75" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="H75" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
+      <c r="K75" s="7" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="76" spans="1:12">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
+      <c r="A76" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>383</v>
+      </c>
       <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
+      <c r="K76" s="7" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+      <c r="A77" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F77" s="8"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>387</v>
+      </c>
       <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+      <c r="K77" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
+      <c r="A78" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
+      <c r="K78" s="7" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="8"/>
